--- a/biology/Botanique/Omphalodes_cappadocica/Omphalodes_cappadocica.xlsx
+++ b/biology/Botanique/Omphalodes_cappadocica/Omphalodes_cappadocica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Omphalodes cappadocica est une espèce de plantes de la famille des Boraginacées originaire du Proche-Orient, principalement de Turquie.
 Nom russe : Пупочник каппадокийский
@@ -512,17 +524,19 @@
           <t>Position taxinomique et historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Comme le genre, Omphalodes cappadocica fait partie de la sous-famille Boraginoideae.
 Joseph Pitton de Tournefort décrit cette espèce sous le nom de Omphalodes orientalis cornifolio.
-En 1798, Carl Ludwig von Willdenow en effectue la description sous le nom de Cynoglossum cappadocicum[1].
-En 1818, Johann Georg Christian Lehmann, reprenant le nom de Tournefort, la décrit dans le genre Omphalodes : Omphalodes cornifolia Lehm.[2].
-En 1819, Johann Jakob Römer et Josef August Schultes la déplacent dans le genre Picotia : Picotia cappadocica (Willd.) Roem. &amp; Schult.[3].
-Enfin, en 1846, Alphonse Pyrame de Candolle, à la suite de la description de Carl Ludwig von Willdenow, la transfère dans le genre Omphalodes : Omphalodes cappadocica (Willd.) A.DC.[4],[5].
+En 1798, Carl Ludwig von Willdenow en effectue la description sous le nom de Cynoglossum cappadocicum.
+En 1818, Johann Georg Christian Lehmann, reprenant le nom de Tournefort, la décrit dans le genre Omphalodes : Omphalodes cornifolia Lehm..
+En 1819, Johann Jakob Römer et Josef August Schultes la déplacent dans le genre Picotia : Picotia cappadocica (Willd.) Roem. &amp; Schult..
+Enfin, en 1846, Alphonse Pyrame de Candolle, à la suite de la description de Carl Ludwig von Willdenow, la transfère dans le genre Omphalodes : Omphalodes cappadocica (Willd.) A.DC.,.
 Elle compte, en conséquence, plusieurs synonymes :
 Cynoglossum cappadocicum Willd.
-Omphalodes caucasica Brand (1908)[6]
+Omphalodes caucasica Brand (1908)
 Omphalodes cornifolia Lehm.
 Omphalodes wittmanniana Steven (1851)
 Picotia cappadocica (Willd.) Roem. &amp; Schult.</t>
@@ -553,7 +567,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante herbacée vivace, de 20 à 25 centimètres de haut, formant une touffe stolonifère.
 Les tiges, grêles, érigées, non ramifiées, portent des feuilles alternes, lancéolées vert-clair, minces, à une nervure centrale.
@@ -588,11 +604,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Omphalodes cappadocica est originaire d'Asie mineure, principalement de Turquie et du Caucase (Abkhazie).
 Son habitat est formé préférentiellement de zones humides et ombragées.
-Elle est maintenant largement répandue dans l'ensemble des pays à climat tempéré comme plante ornementale. De nombreux horticulteurs la diffusent en France[7]
+Elle est maintenant largement répandue dans l'ensemble des pays à climat tempéré comme plante ornementale. De nombreux horticulteurs la diffusent en France
 De nombreuses variétés horticoles ont été sélectionnées, dont les principales sont :
 Omphalodes cappadocica 'Alba'
 Omphalodes cappadocica 'Anthea Bloom'
